--- a/banjo-api/import/guestlist.xlsx
+++ b/banjo-api/import/guestlist.xlsx
@@ -11,42 +11,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="139">
-  <si>
-    <t>Uncle Mike</t>
-  </si>
-  <si>
-    <t>Karen</t>
-  </si>
-  <si>
-    <t>Uncle Bill</t>
-  </si>
-  <si>
-    <t>Mimi</t>
-  </si>
-  <si>
-    <t>Uncle Kevin</t>
-  </si>
-  <si>
-    <t>Eileen</t>
-  </si>
-  <si>
-    <t>Tommy</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="297">
+  <si>
+    <t>Mom</t>
+  </si>
+  <si>
+    <t>Dad Meehan</t>
+  </si>
+  <si>
+    <t>1440 Comanche Dr Allen, TX 75013</t>
+  </si>
+  <si>
+    <t>Caitlyn Mullins</t>
+  </si>
+  <si>
+    <t>Jack Mullins</t>
+  </si>
+  <si>
+    <t>4101 Red Granite Lane McKinney, TX 75070</t>
+  </si>
+  <si>
+    <t>Michael Meehan</t>
+  </si>
+  <si>
+    <t>Karen Meehan</t>
+  </si>
+  <si>
+    <t>23 Phelan Street Plainville, CT 06062</t>
+  </si>
+  <si>
+    <t>Bill Meehan</t>
+  </si>
+  <si>
+    <t>Mimi Meehan</t>
+  </si>
+  <si>
+    <t>106 Daisy Circle Bristol, CT 06010</t>
+  </si>
+  <si>
+    <t>Kevin Meehan</t>
+  </si>
+  <si>
+    <t>Eileen Meehan</t>
+  </si>
+  <si>
+    <t>74 Thunderbird Drive Southington, CT 06489</t>
+  </si>
+  <si>
+    <t>Tommy Guyette</t>
   </si>
   <si>
     <t>Mrs Tommy</t>
   </si>
   <si>
-    <t>Marianne</t>
-  </si>
-  <si>
-    <t>Jace</t>
-  </si>
-  <si>
-    <t>Fred</t>
-  </si>
-  <si>
-    <t>Evy</t>
+    <t>2 Hemple Dr Wolcott, CT 06716</t>
+  </si>
+  <si>
+    <t>Maryann Matway</t>
+  </si>
+  <si>
+    <t>Jace Matway</t>
+  </si>
+  <si>
+    <t>91 Brook Street Rocky Hill, CT 06067</t>
+  </si>
+  <si>
+    <t>Fred Libby</t>
+  </si>
+  <si>
+    <t>Evie Libby</t>
+  </si>
+  <si>
+    <t>9412 New York Avenue Lot 253 Hudson, FL 34667</t>
+  </si>
+  <si>
+    <t>Melissa Libby</t>
+  </si>
+  <si>
+    <t>16 Oliver Libby Rd Phippsburg, ME 04562</t>
   </si>
   <si>
     <t>Danny Tipton</t>
@@ -55,55 +97,79 @@
     <t>Leah Dunn</t>
   </si>
   <si>
+    <t>4122 Buena Vista Street Dallas, TX 75204</t>
+  </si>
+  <si>
     <t>Alec Kemp</t>
   </si>
   <si>
     <t>Garlyn Kemp</t>
   </si>
   <si>
+    <t>9849 Faircrest Dr Dallas, TX 75238</t>
+  </si>
+  <si>
     <t>Jay Wood</t>
   </si>
   <si>
     <t>Amy Wood</t>
   </si>
   <si>
+    <t>8002 Fair Oaks Avenue Dallas, TX 75231</t>
+  </si>
+  <si>
     <t>Chambers</t>
   </si>
   <si>
-    <t>Tori</t>
-  </si>
-  <si>
-    <t>David Chritenson</t>
+    <t>Plus One</t>
+  </si>
+  <si>
+    <t>651 Sheffield Dr Richardson, TX 75081</t>
+  </si>
+  <si>
+    <t>David Christenson</t>
   </si>
   <si>
     <t>Kelly Christenson</t>
   </si>
   <si>
+    <t>7928 La Cosa Drive Dallas, TX 75248</t>
+  </si>
+  <si>
     <t>Shawn Sewall</t>
   </si>
   <si>
-    <t>Plus One</t>
+    <t>3507 Ruidosa Ave Dallas, TX 75228</t>
   </si>
   <si>
     <t>Jamie Hardilek</t>
   </si>
   <si>
+    <t>10570 Stone Canyon Road Apt. 356 Dallas, TX 75230</t>
+  </si>
+  <si>
     <t>Alex Lepe</t>
   </si>
   <si>
-    <t>Bridget Lepe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glenn </t>
-  </si>
-  <si>
-    <t>Katy</t>
+    <t>Bridgette Lepe</t>
+  </si>
+  <si>
+    <t>131 W 81st St Apt 1 New York, NY 10024</t>
+  </si>
+  <si>
+    <t>Glenn Burr</t>
+  </si>
+  <si>
+    <t>Katie Burr</t>
+  </si>
+  <si>
+    <t>710 Valencia St Dallas, TX 75223</t>
   </si>
   <si>
     <t>Todd Stuart</t>
   </si>
   <si>
-    <t>Manny</t>
+    <t>9628 Robin Meadow Dr Dallas, TX 75243</t>
   </si>
   <si>
     <t>Jordan Pratt</t>
@@ -112,19 +178,34 @@
     <t>Shauna Pratt</t>
   </si>
   <si>
-    <t>Pratt</t>
-  </si>
-  <si>
-    <t>Olles</t>
-  </si>
-  <si>
-    <t>Nathaniel</t>
-  </si>
-  <si>
-    <t>Collette</t>
-  </si>
-  <si>
-    <t>Marissa</t>
+    <t>2212 Wilson Drive Arlington, TX 76011</t>
+  </si>
+  <si>
+    <t>Chris Olles</t>
+  </si>
+  <si>
+    <t>Katelyn Olles</t>
+  </si>
+  <si>
+    <t>10545 Cox Lane Dallas, TX 75229</t>
+  </si>
+  <si>
+    <t>Nathaniel O'Dell</t>
+  </si>
+  <si>
+    <t>Kolette O'Dell</t>
+  </si>
+  <si>
+    <t>10370 Bel Aire Dr Dallas, TX 75218</t>
+  </si>
+  <si>
+    <t>Marisa Hettinger</t>
+  </si>
+  <si>
+    <t>Chris Cole</t>
+  </si>
+  <si>
+    <t>8635 Southwestern Blvd. Apt. 227 Dallas, TX 75206</t>
   </si>
   <si>
     <t>Michael Pierce</t>
@@ -133,178 +214,271 @@
     <t>Amber Pierce</t>
   </si>
   <si>
+    <t>9210 Night Beacon Point Dr, Spring, TX 77379</t>
+  </si>
+  <si>
     <t>Alex Copp</t>
   </si>
   <si>
     <t>Vicky Copp</t>
   </si>
   <si>
+    <t>3635 Regent Drive Dallas, TX 75229</t>
+  </si>
+  <si>
     <t>Brian Carlson</t>
   </si>
   <si>
-    <t>Barbara</t>
-  </si>
-  <si>
-    <t>Hope</t>
-  </si>
-  <si>
-    <t>Geoff</t>
+    <t>Barbara Carlson</t>
+  </si>
+  <si>
+    <t>13217 Glad Acres Drive, Farmers Branch, TX  75234</t>
+  </si>
+  <si>
+    <t>Hope Rasmussen</t>
+  </si>
+  <si>
+    <t>Geoff Rasmussen</t>
+  </si>
+  <si>
+    <t>307 S. Weatherred Dr. Richardson, TX 75080</t>
   </si>
   <si>
     <t>Leslie Gregory</t>
   </si>
   <si>
+    <t>205 Cimarron Trl Apt 2 Irving, TX 75063</t>
+  </si>
+  <si>
     <t>Anna Girgan</t>
   </si>
   <si>
     <t>Room For Jesus</t>
   </si>
   <si>
-    <t>Richard</t>
-  </si>
-  <si>
-    <t>Alyssa</t>
-  </si>
-  <si>
-    <t>Bass</t>
-  </si>
-  <si>
-    <t>Morgan</t>
-  </si>
-  <si>
-    <t>Fresh</t>
-  </si>
-  <si>
-    <t>Cindy</t>
-  </si>
-  <si>
-    <t>Samwise</t>
-  </si>
-  <si>
-    <t>Sam</t>
-  </si>
-  <si>
-    <t>Charlene</t>
-  </si>
-  <si>
-    <t>Anya</t>
-  </si>
-  <si>
-    <t>Kartik plus baby</t>
-  </si>
-  <si>
-    <t>Amber</t>
-  </si>
-  <si>
-    <t>Brandi</t>
+    <t>439 W Northwest Hwy 2601 Irving, TX 75039</t>
+  </si>
+  <si>
+    <t>Richard Barnett</t>
+  </si>
+  <si>
+    <t>Alyssa Barnett</t>
+  </si>
+  <si>
+    <t>0617 McCree Rd Dallas, TX 75238</t>
+  </si>
+  <si>
+    <t>Andrew Bass</t>
+  </si>
+  <si>
+    <t>Morgan Bass</t>
+  </si>
+  <si>
+    <t>3435 Granada Ave University Park, TX 75205</t>
+  </si>
+  <si>
+    <t>Alex Castruita</t>
+  </si>
+  <si>
+    <t>Cindy Villegas</t>
+  </si>
+  <si>
+    <t>3715 Royal Ln Dallas, TX 75229</t>
+  </si>
+  <si>
+    <t>Sarah Hastings</t>
+  </si>
+  <si>
+    <t>471 McAuley St Oakland, CA 94609</t>
+  </si>
+  <si>
+    <t>Christina Moser</t>
+  </si>
+  <si>
+    <t>Peter Moser</t>
+  </si>
+  <si>
+    <t>4220 Cedar Ridge Dr. Grand Prairie, TX 75052</t>
+  </si>
+  <si>
+    <t>Anya Rathore</t>
+  </si>
+  <si>
+    <t>Kartik Rathore</t>
+  </si>
+  <si>
+    <t>7205 Lehigh Dr Dallas, TX 75214</t>
+  </si>
+  <si>
+    <t>Amber Johnson</t>
+  </si>
+  <si>
+    <t>Trey Johnson</t>
+  </si>
+  <si>
+    <t>4470 Highland Pl NE Marietta, GA 30066</t>
+  </si>
+  <si>
+    <t>Brandi Harper</t>
   </si>
   <si>
     <t>2 boys</t>
   </si>
   <si>
-    <t>Harper Clan</t>
-  </si>
-  <si>
-    <t>Mel</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>Lauren</t>
-  </si>
-  <si>
-    <t>Eric</t>
-  </si>
-  <si>
-    <t>Sarah</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>Mom</t>
-  </si>
-  <si>
-    <t>Dad</t>
-  </si>
-  <si>
-    <t>Caleb</t>
-  </si>
-  <si>
-    <t>Nico</t>
-  </si>
-  <si>
-    <t>Rochelle</t>
-  </si>
-  <si>
-    <t>Craig</t>
-  </si>
-  <si>
-    <t>Xavier</t>
+    <t>680 US Highway 19 S Americus, GA 31719</t>
+  </si>
+  <si>
+    <t>Phillip Harper</t>
+  </si>
+  <si>
+    <t>Natasha Harper</t>
+  </si>
+  <si>
+    <t>650 US Highway 19 S Americus, GA 31719</t>
+  </si>
+  <si>
+    <t>Melanie Cornelius</t>
+  </si>
+  <si>
+    <t>Michael Trevino</t>
+  </si>
+  <si>
+    <t>4123 Cedar Springs Road, Apt 4159 Dallas, TX 75206</t>
+  </si>
+  <si>
+    <t>Lauren Campbell</t>
+  </si>
+  <si>
+    <t>Eric Campbell</t>
+  </si>
+  <si>
+    <t>3551 Briargrove Ln Dallas, TX 75287</t>
+  </si>
+  <si>
+    <t>Sarah Terentiev</t>
+  </si>
+  <si>
+    <t>Konstantin</t>
+  </si>
+  <si>
+    <t>Anita Price</t>
+  </si>
+  <si>
+    <t>2208 Gail Ave Albany, GA 31707</t>
+  </si>
+  <si>
+    <t>Mark Price</t>
+  </si>
+  <si>
+    <t>24206 Longenbaugh Rd Katy, TX 77493</t>
+  </si>
+  <si>
+    <t>Caleb Price</t>
+  </si>
+  <si>
+    <t>Nico Price</t>
+  </si>
+  <si>
+    <t>111 San Marco Way Unit A Tybee Island, GA 31328</t>
+  </si>
+  <si>
+    <t>Rochelle Whitten</t>
+  </si>
+  <si>
+    <t>Craig Whitten</t>
+  </si>
+  <si>
+    <t>9137 Cranston Ct Aubrey, TX 76227</t>
+  </si>
+  <si>
+    <t>Xavier Gutierrez</t>
   </si>
   <si>
     <t>Wifey</t>
   </si>
   <si>
-    <t>Nathan</t>
+    <t>3025 Greenway Dr Burleson, TX 76028</t>
+  </si>
+  <si>
+    <t>Nathan Trinh</t>
   </si>
   <si>
     <t>Woman of my choice</t>
   </si>
   <si>
-    <t>Keith</t>
-  </si>
-  <si>
-    <t>Tammy</t>
-  </si>
-  <si>
-    <t>Simon</t>
-  </si>
-  <si>
-    <t>Nikki</t>
-  </si>
-  <si>
-    <t>Patrick</t>
-  </si>
-  <si>
-    <t>Peter</t>
-  </si>
-  <si>
-    <t>Not a Yankees fan</t>
-  </si>
-  <si>
-    <t>Angela</t>
-  </si>
-  <si>
-    <t>Andrew</t>
-  </si>
-  <si>
-    <t>Jacob</t>
-  </si>
-  <si>
-    <t>International Woman of Mystery</t>
-  </si>
-  <si>
-    <t>Will</t>
+    <t>3234 Gillespie St Houston, TX 77020</t>
+  </si>
+  <si>
+    <t>Keith Baham</t>
+  </si>
+  <si>
+    <t>2515 Cherry Dr Little Elm, TX 75068</t>
+  </si>
+  <si>
+    <t>Tamara Dalseme</t>
+  </si>
+  <si>
+    <t>Simon Dalseme</t>
+  </si>
+  <si>
+    <t>1083 Meadow Grass Ln Powder Springs, GA 30127</t>
+  </si>
+  <si>
+    <t>Megan Gienger</t>
+  </si>
+  <si>
+    <t>Paul Boyd</t>
+  </si>
+  <si>
+    <t>2323 N. Field St #1235 Dallas, TX 75201</t>
+  </si>
+  <si>
+    <t>Peter Guarini</t>
+  </si>
+  <si>
+    <t>10225 Linkwood Dr. Dallas, TX 75238</t>
+  </si>
+  <si>
+    <t>Angela Wyman</t>
+  </si>
+  <si>
+    <t>Andrew Wyman</t>
+  </si>
+  <si>
+    <t>2110 Sunnyvale Rd Grand Prairie, TX 75050</t>
+  </si>
+  <si>
+    <t>Will Arango</t>
   </si>
   <si>
     <t>Not Crazy</t>
   </si>
   <si>
-    <t>Katie</t>
-  </si>
-  <si>
-    <t>Why not Peter?</t>
-  </si>
-  <si>
-    <t>Andy</t>
-  </si>
-  <si>
-    <t>Megan</t>
-  </si>
-  <si>
-    <t>Bill</t>
+    <t>2338 Pueblo Dr garland tx 75040</t>
+  </si>
+  <si>
+    <t>Katie Kennedy</t>
+  </si>
+  <si>
+    <t>5201 Amesbury Dr. #458 Dallas, TX 75206</t>
+  </si>
+  <si>
+    <t>Andy Jordan</t>
+  </si>
+  <si>
+    <t>Stacy Jordan</t>
+  </si>
+  <si>
+    <t>1435 Southern Hills Dr Mansfield, TX 76063</t>
+  </si>
+  <si>
+    <t>Megan Essary</t>
+  </si>
+  <si>
+    <t>Billy Essary</t>
+  </si>
+  <si>
+    <t>8927 Daytonia Avenue Dallas, TX 75218</t>
   </si>
   <si>
     <t>Grandma</t>
@@ -313,121 +487,421 @@
     <t>Grandpa</t>
   </si>
   <si>
-    <t>Big U</t>
-  </si>
-  <si>
-    <t>Migz</t>
+    <t>404 N Decker Maquoketa, IA 52060</t>
+  </si>
+  <si>
+    <t>Uliser Salmeron</t>
+  </si>
+  <si>
+    <t>Jacqueline Salmeron</t>
+  </si>
+  <si>
+    <t>6913 N. State Hwy 161 #226 Irving, TX 75039</t>
+  </si>
+  <si>
+    <t>Miguel Villegas</t>
   </si>
   <si>
     <t>Someone</t>
   </si>
   <si>
+    <t>2644 Colby St Apt 2110 Dallas, TX 75204</t>
+  </si>
+  <si>
+    <t>Simon Leung</t>
+  </si>
+  <si>
     <t>New Girl</t>
   </si>
   <si>
-    <t>Amanda</t>
-  </si>
-  <si>
-    <t>Brett</t>
-  </si>
-  <si>
-    <t>Lizzie</t>
-  </si>
-  <si>
-    <t>Kate</t>
-  </si>
-  <si>
-    <t>Vadani</t>
-  </si>
-  <si>
-    <t>Gilbert</t>
-  </si>
-  <si>
-    <t>Shenna</t>
-  </si>
-  <si>
-    <t>John</t>
+    <t>2470 Wildoak Dr Dallas, TX 75228</t>
+  </si>
+  <si>
+    <t>Amanda Sarrett</t>
+  </si>
+  <si>
+    <t>Brett Robertson</t>
+  </si>
+  <si>
+    <t>11830 Dixfield Dr Dallas, TX 75218</t>
+  </si>
+  <si>
+    <t>Elizabeth Harris</t>
+  </si>
+  <si>
+    <t>2140 Medical District Drive #1083 Dallas, TX 75235</t>
+  </si>
+  <si>
+    <t>Kate Vahdani</t>
+  </si>
+  <si>
+    <t>Chris Vahdani</t>
+  </si>
+  <si>
+    <t>5711 Marquita Ave Dallas, TX 75206</t>
+  </si>
+  <si>
+    <t>Sam Wood</t>
+  </si>
+  <si>
+    <t>Charlene Avery</t>
+  </si>
+  <si>
+    <t>3624 Routh Street Dallas, TX 75219</t>
+  </si>
+  <si>
+    <t>John Hughet</t>
+  </si>
+  <si>
+    <t>Megan Hughet</t>
+  </si>
+  <si>
+    <t>7316 Meadow Rd Dallas, TX 75230</t>
+  </si>
+  <si>
+    <t>Misty Meador</t>
+  </si>
+  <si>
+    <t>Kyle Meador</t>
+  </si>
+  <si>
+    <t>1509 Woodoak Dr Richardson, TX 75082</t>
+  </si>
+  <si>
+    <t>Ashley Arroyo</t>
+  </si>
+  <si>
+    <t>Derek Ortiz</t>
+  </si>
+  <si>
+    <t>301 Coyote Ln #5203 Arlington, TX 76018</t>
+  </si>
+  <si>
+    <t>Emaus Yokabed Gutierrez</t>
+  </si>
+  <si>
+    <t>Plus 1</t>
+  </si>
+  <si>
+    <t>143 Fuente Alley San Antonio, TX 78210</t>
+  </si>
+  <si>
+    <t>Jake Johnson</t>
+  </si>
+  <si>
+    <t>Katryce Johnson</t>
+  </si>
+  <si>
+    <t>1306 S. Madison Amarillo, TX 79101</t>
+  </si>
+  <si>
+    <t>Sadiq Momin</t>
+  </si>
+  <si>
+    <t>Some Chick</t>
+  </si>
+  <si>
+    <t>PO Box 29311 Austin, TX 78755</t>
+  </si>
+  <si>
+    <t>Jesus</t>
+  </si>
+  <si>
+    <t>Annabelle</t>
+  </si>
+  <si>
+    <t>10507 Shayna Ct, Dallas, TX 75217</t>
+  </si>
+  <si>
+    <t>Naomi</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>706 N Allen Montgomery City, MO 63361</t>
+  </si>
+  <si>
+    <t>Rhonda</t>
+  </si>
+  <si>
+    <t>Hubby</t>
+  </si>
+  <si>
+    <t>1020 Laclede St Trenton, MO 64683</t>
   </si>
   <si>
     <t>Tony</t>
   </si>
   <si>
-    <t>Becky</t>
-  </si>
-  <si>
-    <t>Misty</t>
-  </si>
-  <si>
-    <t>Kyle</t>
-  </si>
-  <si>
-    <t>Ashley</t>
-  </si>
-  <si>
-    <t>Boyfriend</t>
-  </si>
-  <si>
-    <t>yoki</t>
-  </si>
-  <si>
-    <t>Jake</t>
-  </si>
-  <si>
-    <t>Kat</t>
-  </si>
-  <si>
-    <t>Sadiq</t>
-  </si>
-  <si>
-    <t>Some Chick</t>
-  </si>
-  <si>
-    <t>Jesus</t>
-  </si>
-  <si>
-    <t>Annabelle</t>
-  </si>
-  <si>
-    <t>Naomi</t>
-  </si>
-  <si>
-    <t>Chris</t>
-  </si>
-  <si>
-    <t>Rhonda</t>
-  </si>
-  <si>
-    <t>Hubby</t>
-  </si>
-  <si>
     <t>Koreen</t>
   </si>
   <si>
-    <t>Dino</t>
-  </si>
-  <si>
-    <t>Eva</t>
-  </si>
-  <si>
-    <t>Paul</t>
-  </si>
-  <si>
-    <t>Bridgette</t>
-  </si>
-  <si>
-    <t>Boo Thang</t>
-  </si>
-  <si>
-    <t>Wanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">David </t>
-  </si>
-  <si>
-    <t>Rosie</t>
-  </si>
-  <si>
-    <t>Colin</t>
+    <t>Eva Sherenian</t>
+  </si>
+  <si>
+    <t>5627 Lindenshire Lane Dallas TX 75230</t>
+  </si>
+  <si>
+    <t>David Price</t>
+  </si>
+  <si>
+    <t>Rosie Price</t>
+  </si>
+  <si>
+    <t>Tori Foster</t>
+  </si>
+  <si>
+    <t>Colin Foster</t>
+  </si>
+  <si>
+    <t>5402 Amity Dr Powder Springs, GA 30127</t>
+  </si>
+  <si>
+    <t>John Crawford III</t>
+  </si>
+  <si>
+    <t>3701 Grapevine Mills Pkwy Apt 2537 Grapevine, TX 76051</t>
+  </si>
+  <si>
+    <t>Larman</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>Salvo</t>
+  </si>
+  <si>
+    <t>Durko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Cunningham </t>
+  </si>
+  <si>
+    <t>Donnie Meehan</t>
+  </si>
+  <si>
+    <t>Alyssa Meehan</t>
+  </si>
+  <si>
+    <t>263 Little Fawn Rd Southington, CT 06489</t>
+  </si>
+  <si>
+    <t>Sarah Meehan</t>
+  </si>
+  <si>
+    <t>David Tishelman</t>
+  </si>
+  <si>
+    <t>184 Summer Street Apt 604 Stamford, CT 06901</t>
+  </si>
+  <si>
+    <t>Sean Meehan</t>
+  </si>
+  <si>
+    <t>Caroline Melley</t>
+  </si>
+  <si>
+    <t>200 Broad Street Apt 2409 Stamford, CT 06901</t>
+  </si>
+  <si>
+    <t>Tim Kettering</t>
+  </si>
+  <si>
+    <t>Clara</t>
+  </si>
+  <si>
+    <t>418 Stroud Lane Garland, TX 75043</t>
+  </si>
+  <si>
+    <t>Elijah Price</t>
+  </si>
+  <si>
+    <t>Violet Price</t>
+  </si>
+  <si>
+    <t>590 Olympic Way Acworth, GA 30102</t>
+  </si>
+  <si>
+    <t>Kelly Debellis</t>
+  </si>
+  <si>
+    <t>Husband</t>
+  </si>
+  <si>
+    <t>22 Eastwood Drive Plainville, CT 06062</t>
+  </si>
+  <si>
+    <t>Laura Meehan</t>
+  </si>
+  <si>
+    <t>Colleen McGarry</t>
+  </si>
+  <si>
+    <t>4 Orchard lane Plainville CT 06062</t>
+  </si>
+  <si>
+    <t>Maggie Allen</t>
+  </si>
+  <si>
+    <t>Aaron Allen</t>
+  </si>
+  <si>
+    <t>54 Dunne Ave Collinsville, CT 06019</t>
+  </si>
+  <si>
+    <t>Molly Meehan</t>
+  </si>
+  <si>
+    <t>Jack Duff</t>
+  </si>
+  <si>
+    <t>1983 Ocean Street Ext Santa Cruz, CA 95060</t>
+  </si>
+  <si>
+    <t>Zachary Price</t>
+  </si>
+  <si>
+    <t>Sarah Price</t>
+  </si>
+  <si>
+    <t>11859 Bubbling Well Rd Glenarm, IL 62536</t>
+  </si>
+  <si>
+    <t>Manny Patel</t>
+  </si>
+  <si>
+    <t>Wife</t>
+  </si>
+  <si>
+    <t>1301 Coral Dr Coppell, TX 75019</t>
+  </si>
+  <si>
+    <t>Sarah Sparling</t>
+  </si>
+  <si>
+    <t>Plus one</t>
+  </si>
+  <si>
+    <t>8711 Angora St Dallas, TX 75218</t>
+  </si>
+  <si>
+    <t>Wendy Hunter</t>
+  </si>
+  <si>
+    <t>5225 Verde Valley Ln Apt 327 Dallas, TX 75254</t>
+  </si>
+  <si>
+    <t>Tori Hay</t>
+  </si>
+  <si>
+    <t>1520 Pecan Valley Court Corinth, TX 76210</t>
+  </si>
+  <si>
+    <t>Poppy Bordelon</t>
+  </si>
+  <si>
+    <t>1904 Westlake Drive, Plano TX 75075</t>
+  </si>
+  <si>
+    <t>Joey Biediger</t>
+  </si>
+  <si>
+    <t>Colleen Bardsley</t>
+  </si>
+  <si>
+    <t>833 Peavy Rd Dallas, TX 75218</t>
+  </si>
+  <si>
+    <t>Kathy baker</t>
+  </si>
+  <si>
+    <t>4206 Hartford Rd Garland, TX 75043</t>
+  </si>
+  <si>
+    <t>Manuel Guzman</t>
+  </si>
+  <si>
+    <t>300 Hunters Ridge Ct Irving, TX 75063</t>
+  </si>
+  <si>
+    <t>Kevin Black and wife</t>
+  </si>
+  <si>
+    <t>Samantha Nicholson</t>
+  </si>
+  <si>
+    <t>4030 N Central Expressway # 175 Dallas, TX 75204</t>
+  </si>
+  <si>
+    <t>Gilbert Sumba</t>
+  </si>
+  <si>
+    <t>1009 Brendan Dr Little Elm, TX 75068</t>
+  </si>
+  <si>
+    <t>Paul Fowler</t>
+  </si>
+  <si>
+    <t>125 Creekview Ln Crandall, TX 75114</t>
+  </si>
+  <si>
+    <t>Wanda McCauley</t>
+  </si>
+  <si>
+    <t>PO Box 1176 Cedar Hill, TX 75106</t>
+  </si>
+  <si>
+    <t>Kayla Schroeder</t>
+  </si>
+  <si>
+    <t>Benjamin Carpenter</t>
+  </si>
+  <si>
+    <t>314 Edgefield Ave Dallas, TX 75208</t>
+  </si>
+  <si>
+    <t>Shenna Hawkins</t>
+  </si>
+  <si>
+    <t>John Messner</t>
+  </si>
+  <si>
+    <t>1250 Cherokee St #711 Denver, CO 80204</t>
+  </si>
+  <si>
+    <t>Maureen Head</t>
+  </si>
+  <si>
+    <t>1927 Sherman Dr Iowa City, IA 52240</t>
+  </si>
+  <si>
+    <t>Gary Loomis</t>
+  </si>
+  <si>
+    <t>7F Queen Terrace Southington, CT 06489</t>
+  </si>
+  <si>
+    <t>Ann Brothers</t>
+  </si>
+  <si>
+    <t>28903 Sapphire Circle Magnolia, TX 77355</t>
+  </si>
+  <si>
+    <t>Ben Sweeney</t>
+  </si>
+  <si>
+    <t>Melissa Sweeney</t>
+  </si>
+  <si>
+    <t>40 Glenwood Drive Plainville, CT 06062</t>
+  </si>
+  <si>
+    <t>Clint Gibbs</t>
+  </si>
+  <si>
+    <t>5105 Hubbard Ct Forney, TX 75126</t>
   </si>
 </sst>
 </file>
@@ -442,12 +916,18 @@
     </font>
     <font/>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -456,13 +936,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -477,6 +958,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -496,886 +980,4439 @@
       <c r="C1" s="1">
         <v>2.0</v>
       </c>
+      <c r="D1" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E1" s="2">
+        <f t="shared" ref="E1:E8" si="1">C1*D1</f>
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>2.0</v>
-      </c>
+        <v>4.0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E2" s="2">
+        <f t="shared" si="1"/>
+        <v>3.6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1">
         <v>2.0</v>
       </c>
+      <c r="D3" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1">
         <v>2.0</v>
       </c>
+      <c r="D4" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="1"/>
+        <v>1.98</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1">
         <v>2.0</v>
       </c>
+      <c r="D5" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="1"/>
+        <v>1.98</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1">
         <v>2.0</v>
       </c>
+      <c r="D6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1">
         <v>2.0</v>
       </c>
+      <c r="D7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1">
         <v>2.0</v>
       </c>
+      <c r="D8" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="1"/>
+        <v>1.7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B9" s="1"/>
       <c r="C9" s="1">
-        <v>2.0</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1">
         <v>2.0</v>
       </c>
+      <c r="D10" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" ref="E10:E93" si="2">C10*D10</f>
+        <v>2</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1">
         <v>2.0</v>
       </c>
+      <c r="D11" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1">
         <v>2.0</v>
       </c>
+      <c r="D12" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1">
         <v>2.0</v>
       </c>
+      <c r="D13" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1">
         <v>2.0</v>
       </c>
+      <c r="D14" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B15" s="2"/>
       <c r="C15" s="1">
         <v>2.0</v>
       </c>
+      <c r="D15" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B16" s="2"/>
       <c r="C16" s="1">
         <v>2.0</v>
       </c>
+      <c r="D16" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C17" s="1">
         <v>2.0</v>
       </c>
+      <c r="D17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C18" s="1">
         <v>2.0</v>
       </c>
+      <c r="D18" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B19" s="1"/>
       <c r="C19" s="1">
-        <v>2.0</v>
-      </c>
+        <v>4.0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="C20" s="1">
         <v>2.0</v>
       </c>
+      <c r="D20" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C21" s="1">
         <v>2.0</v>
       </c>
+      <c r="D21" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C22" s="1">
         <v>2.0</v>
       </c>
+      <c r="D22" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C23" s="1">
         <v>2.0</v>
       </c>
+      <c r="D23" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C24" s="1">
         <v>2.0</v>
       </c>
+      <c r="D24" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="C25" s="1">
         <v>2.0</v>
       </c>
+      <c r="D25" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="C26" s="1">
         <v>2.0</v>
       </c>
+      <c r="D26" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C27" s="1">
         <v>2.0</v>
       </c>
+      <c r="D27" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C28" s="1">
         <v>2.0</v>
       </c>
+      <c r="D28" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="2"/>
+        <v>1.3</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="C29" s="1">
         <v>2.0</v>
       </c>
+      <c r="D29" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="C30" s="1">
         <v>2.0</v>
       </c>
+      <c r="D30" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="C31" s="1">
         <v>2.0</v>
       </c>
+      <c r="D31" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C32" s="1">
         <v>2.0</v>
       </c>
+      <c r="D32" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1">
-        <v>1.0</v>
-      </c>
+        <v>2.0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="2"/>
+        <v>1.6</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="C34" s="1">
-        <v>3.0</v>
-      </c>
+        <v>2.0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>63</v>
+        <v>96</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="C35" s="1">
-        <v>4.0</v>
-      </c>
+        <v>2.0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="C36" s="1">
-        <v>2.0</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="C37" s="1">
-        <v>2.0</v>
-      </c>
+        <v>3.0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="C38" s="1">
-        <v>2.0</v>
-      </c>
+        <v>4.0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>70</v>
+        <v>108</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="C39" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D39" s="1">
         <v>1.0</v>
       </c>
+      <c r="E39" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>71</v>
+        <v>111</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="C40" s="1">
-        <v>1.0</v>
-      </c>
+        <v>2.0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="C41" s="1">
         <v>2.0</v>
       </c>
+      <c r="D41" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>75</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="B42" s="1"/>
       <c r="C42" s="1">
-        <v>2.0</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="B43" s="2"/>
       <c r="C43" s="1">
-        <v>2.0</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="C44" s="1">
         <v>2.0</v>
       </c>
+      <c r="D44" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="C45" s="1">
         <v>2.0</v>
       </c>
+      <c r="D45" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="C46" s="1">
         <v>2.0</v>
       </c>
+      <c r="D46" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="C47" s="1">
         <v>2.0</v>
       </c>
+      <c r="D47" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="C48" s="1">
         <v>2.0</v>
       </c>
+      <c r="D48" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="C49" s="1">
         <v>2.0</v>
       </c>
+      <c r="D49" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="C50" s="1">
         <v>2.0</v>
       </c>
+      <c r="D50" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E50" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>92</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B51" s="1"/>
       <c r="C51" s="1">
         <v>2.0</v>
       </c>
+      <c r="D51" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E51" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="C52" s="1">
         <v>2.0</v>
       </c>
+      <c r="D52" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E52" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="C53" s="1">
         <v>2.0</v>
       </c>
+      <c r="D53" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E53" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>97</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="B54" s="1"/>
       <c r="C54" s="1">
         <v>2.0</v>
       </c>
+      <c r="D54" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E54" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="2"/>
+      <c r="Z54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>99</v>
+        <v>151</v>
       </c>
       <c r="C55" s="1">
         <v>2.0</v>
       </c>
+      <c r="D55" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E55" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="2"/>
+      <c r="Z55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="C56" s="1">
         <v>2.0</v>
       </c>
+      <c r="D56" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="E56" s="2">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="2"/>
+      <c r="Z56" s="2"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="C57" s="1">
         <v>2.0</v>
       </c>
+      <c r="D57" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E57" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="2"/>
+      <c r="X57" s="2"/>
+      <c r="Y57" s="2"/>
+      <c r="Z57" s="2"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="C58" s="1">
         <v>2.0</v>
       </c>
+      <c r="D58" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E58" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+      <c r="U58" s="2"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="2"/>
+      <c r="X58" s="2"/>
+      <c r="Y58" s="2"/>
+      <c r="Z58" s="2"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>104</v>
+        <v>162</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>105</v>
+        <v>163</v>
       </c>
       <c r="C59" s="1">
         <v>2.0</v>
       </c>
+      <c r="D59" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E59" s="2">
+        <f t="shared" si="2"/>
+        <v>1.6</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="2"/>
+      <c r="V59" s="2"/>
+      <c r="W59" s="2"/>
+      <c r="X59" s="2"/>
+      <c r="Y59" s="2"/>
+      <c r="Z59" s="2"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="C60" s="1">
         <v>2.0</v>
       </c>
+      <c r="D60" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E60" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="2"/>
+      <c r="X60" s="2"/>
+      <c r="Y60" s="2"/>
+      <c r="Z60" s="2"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>107</v>
+        <v>168</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="C61" s="1">
         <v>2.0</v>
       </c>
+      <c r="D61" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="E61" s="2">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
+      <c r="U61" s="2"/>
+      <c r="V61" s="2"/>
+      <c r="W61" s="2"/>
+      <c r="X61" s="2"/>
+      <c r="Y61" s="2"/>
+      <c r="Z61" s="2"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="C62" s="1">
         <v>2.0</v>
       </c>
+      <c r="D62" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E62" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+      <c r="U62" s="2"/>
+      <c r="V62" s="2"/>
+      <c r="W62" s="2"/>
+      <c r="X62" s="2"/>
+      <c r="Y62" s="2"/>
+      <c r="Z62" s="2"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>111</v>
+        <v>174</v>
       </c>
       <c r="C63" s="1">
         <v>2.0</v>
       </c>
+      <c r="D63" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E63" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
+      <c r="U63" s="2"/>
+      <c r="V63" s="2"/>
+      <c r="W63" s="2"/>
+      <c r="X63" s="2"/>
+      <c r="Y63" s="2"/>
+      <c r="Z63" s="2"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>56</v>
+        <v>176</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>102</v>
+        <v>177</v>
       </c>
       <c r="C64" s="1">
         <v>2.0</v>
       </c>
+      <c r="D64" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E64" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
+      <c r="U64" s="2"/>
+      <c r="V64" s="2"/>
+      <c r="W64" s="2"/>
+      <c r="X64" s="2"/>
+      <c r="Y64" s="2"/>
+      <c r="Z64" s="2"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>111</v>
+        <v>179</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>102</v>
+        <v>180</v>
       </c>
       <c r="C65" s="1">
         <v>2.0</v>
       </c>
+      <c r="D65" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E65" s="2">
+        <f t="shared" si="2"/>
+        <v>1.6</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
+      <c r="U65" s="2"/>
+      <c r="V65" s="2"/>
+      <c r="W65" s="2"/>
+      <c r="X65" s="2"/>
+      <c r="Y65" s="2"/>
+      <c r="Z65" s="2"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>112</v>
+        <v>182</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>113</v>
+        <v>183</v>
       </c>
       <c r="C66" s="1">
         <v>2.0</v>
       </c>
+      <c r="D66" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E66" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
+      <c r="U66" s="2"/>
+      <c r="V66" s="2"/>
+      <c r="W66" s="2"/>
+      <c r="X66" s="2"/>
+      <c r="Y66" s="2"/>
+      <c r="Z66" s="2"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>114</v>
+        <v>185</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>115</v>
+        <v>186</v>
       </c>
       <c r="C67" s="1">
         <v>2.0</v>
       </c>
+      <c r="D67" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E67" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+      <c r="U67" s="2"/>
+      <c r="V67" s="2"/>
+      <c r="W67" s="2"/>
+      <c r="X67" s="2"/>
+      <c r="Y67" s="2"/>
+      <c r="Z67" s="2"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>116</v>
+        <v>188</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>117</v>
+        <v>189</v>
       </c>
       <c r="C68" s="1">
         <v>2.0</v>
       </c>
+      <c r="D68" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E68" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="W68" s="2"/>
+      <c r="X68" s="2"/>
+      <c r="Y68" s="2"/>
+      <c r="Z68" s="2"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>118</v>
+        <v>191</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>65</v>
+        <v>192</v>
       </c>
       <c r="C69" s="1">
         <v>2.0</v>
       </c>
+      <c r="D69" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E69" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2"/>
+      <c r="V69" s="2"/>
+      <c r="W69" s="2"/>
+      <c r="X69" s="2"/>
+      <c r="Y69" s="2"/>
+      <c r="Z69" s="2"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>119</v>
+        <v>194</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>120</v>
+        <v>195</v>
       </c>
       <c r="C70" s="1">
         <v>2.0</v>
       </c>
+      <c r="D70" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E70" s="2">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2"/>
+      <c r="V70" s="2"/>
+      <c r="W70" s="2"/>
+      <c r="X70" s="2"/>
+      <c r="Y70" s="2"/>
+      <c r="Z70" s="2"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>121</v>
+        <v>197</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>122</v>
+        <v>198</v>
       </c>
       <c r="C71" s="1">
         <v>2.0</v>
       </c>
+      <c r="D71" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E71" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
+      <c r="U71" s="2"/>
+      <c r="V71" s="2"/>
+      <c r="W71" s="2"/>
+      <c r="X71" s="2"/>
+      <c r="Y71" s="2"/>
+      <c r="Z71" s="2"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>124</v>
+        <v>201</v>
       </c>
       <c r="C72" s="1">
         <v>2.0</v>
       </c>
+      <c r="D72" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E72" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
+      <c r="U72" s="2"/>
+      <c r="V72" s="2"/>
+      <c r="W72" s="2"/>
+      <c r="X72" s="2"/>
+      <c r="Y72" s="2"/>
+      <c r="Z72" s="2"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>125</v>
+        <v>203</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>126</v>
+        <v>204</v>
       </c>
       <c r="C73" s="1">
         <v>2.0</v>
       </c>
+      <c r="D73" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E73" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2"/>
+      <c r="V73" s="2"/>
+      <c r="W73" s="2"/>
+      <c r="X73" s="2"/>
+      <c r="Y73" s="2"/>
+      <c r="Z73" s="2"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>127</v>
+        <v>206</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>128</v>
+        <v>207</v>
       </c>
       <c r="C74" s="1">
         <v>2.0</v>
       </c>
+      <c r="D74" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E74" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2"/>
+      <c r="V74" s="2"/>
+      <c r="W74" s="2"/>
+      <c r="X74" s="2"/>
+      <c r="Y74" s="2"/>
+      <c r="Z74" s="2"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>112</v>
+        <v>208</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="C75" s="1">
         <v>2.0</v>
       </c>
+      <c r="D75" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E75" s="2">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="2"/>
+      <c r="W75" s="2"/>
+      <c r="X75" s="2"/>
+      <c r="Y75" s="2"/>
+      <c r="Z75" s="2"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>102</v>
+        <v>211</v>
       </c>
       <c r="C76" s="1">
         <v>2.0</v>
       </c>
+      <c r="D76" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E76" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="2"/>
+      <c r="X76" s="2"/>
+      <c r="Y76" s="2"/>
+      <c r="Z76" s="2"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>131</v>
+        <v>212</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>102</v>
+        <v>213</v>
       </c>
       <c r="C77" s="1">
         <v>2.0</v>
       </c>
+      <c r="D77" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E77" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2"/>
+      <c r="U77" s="2"/>
+      <c r="V77" s="2"/>
+      <c r="W77" s="2"/>
+      <c r="X77" s="2"/>
+      <c r="Y77" s="2"/>
+      <c r="Z77" s="2"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>132</v>
+        <v>215</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>102</v>
+        <v>189</v>
       </c>
       <c r="C78" s="1">
         <v>2.0</v>
       </c>
+      <c r="D78" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E78" s="2">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2"/>
+      <c r="V78" s="2"/>
+      <c r="W78" s="2"/>
+      <c r="X78" s="2"/>
+      <c r="Y78" s="2"/>
+      <c r="Z78" s="2"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>133</v>
+        <v>217</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>134</v>
+        <v>218</v>
       </c>
       <c r="C79" s="1">
         <v>2.0</v>
       </c>
+      <c r="D79" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E79" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8</v>
+      </c>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
+      <c r="U79" s="2"/>
+      <c r="V79" s="2"/>
+      <c r="W79" s="2"/>
+      <c r="X79" s="2"/>
+      <c r="Y79" s="2"/>
+      <c r="Z79" s="2"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>135</v>
+        <v>219</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>102</v>
+        <v>218</v>
       </c>
       <c r="C80" s="1">
         <v>2.0</v>
       </c>
+      <c r="D80" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E80" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8</v>
+      </c>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2"/>
+      <c r="S80" s="2"/>
+      <c r="T80" s="2"/>
+      <c r="U80" s="2"/>
+      <c r="V80" s="2"/>
+      <c r="W80" s="2"/>
+      <c r="X80" s="2"/>
+      <c r="Y80" s="2"/>
+      <c r="Z80" s="2"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>137</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="B81" s="2"/>
       <c r="C81" s="1">
-        <v>2.0</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="E81" s="2">
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="2"/>
+      <c r="R81" s="2"/>
+      <c r="S81" s="2"/>
+      <c r="T81" s="2"/>
+      <c r="U81" s="2"/>
+      <c r="V81" s="2"/>
+      <c r="W81" s="2"/>
+      <c r="X81" s="2"/>
+      <c r="Y81" s="2"/>
+      <c r="Z81" s="2"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>138</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="B82" s="2"/>
       <c r="C82" s="1">
-        <v>2.0</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E82" s="2">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="2"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2"/>
+      <c r="U82" s="2"/>
+      <c r="V82" s="2"/>
+      <c r="W82" s="2"/>
+      <c r="X82" s="2"/>
+      <c r="Y82" s="2"/>
+      <c r="Z82" s="2"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C83" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E83" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
+      <c r="U83" s="2"/>
+      <c r="V83" s="2"/>
+      <c r="W83" s="2"/>
+      <c r="X83" s="2"/>
+      <c r="Y83" s="2"/>
+      <c r="Z83" s="2"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C84" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="E84" s="2">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="2"/>
+      <c r="R84" s="2"/>
+      <c r="S84" s="2"/>
+      <c r="T84" s="2"/>
+      <c r="U84" s="2"/>
+      <c r="V84" s="2"/>
+      <c r="W84" s="2"/>
+      <c r="X84" s="2"/>
+      <c r="Y84" s="2"/>
+      <c r="Z84" s="2"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C85" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E85" s="2">
+        <f t="shared" si="2"/>
+        <v>1.6</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2"/>
+      <c r="R85" s="2"/>
+      <c r="S85" s="2"/>
+      <c r="T85" s="2"/>
+      <c r="U85" s="2"/>
+      <c r="V85" s="2"/>
+      <c r="W85" s="2"/>
+      <c r="X85" s="2"/>
+      <c r="Y85" s="2"/>
+      <c r="Z85" s="2"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C86" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D86" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E86" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" s="2"/>
+      <c r="Q86" s="2"/>
+      <c r="R86" s="2"/>
+      <c r="S86" s="2"/>
+      <c r="T86" s="2"/>
+      <c r="U86" s="2"/>
+      <c r="V86" s="2"/>
+      <c r="W86" s="2"/>
+      <c r="X86" s="2"/>
+      <c r="Y86" s="2"/>
+      <c r="Z86" s="2"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C87" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E87" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="2"/>
+      <c r="R87" s="2"/>
+      <c r="S87" s="2"/>
+      <c r="T87" s="2"/>
+      <c r="U87" s="2"/>
+      <c r="V87" s="2"/>
+      <c r="W87" s="2"/>
+      <c r="X87" s="2"/>
+      <c r="Y87" s="2"/>
+      <c r="Z87" s="2"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C88" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E88" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2"/>
+      <c r="R88" s="2"/>
+      <c r="S88" s="2"/>
+      <c r="T88" s="2"/>
+      <c r="U88" s="2"/>
+      <c r="V88" s="2"/>
+      <c r="W88" s="2"/>
+      <c r="X88" s="2"/>
+      <c r="Y88" s="2"/>
+      <c r="Z88" s="2"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C89" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E89" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="2"/>
+      <c r="R89" s="2"/>
+      <c r="S89" s="2"/>
+      <c r="T89" s="2"/>
+      <c r="U89" s="2"/>
+      <c r="V89" s="2"/>
+      <c r="W89" s="2"/>
+      <c r="X89" s="2"/>
+      <c r="Y89" s="2"/>
+      <c r="Z89" s="2"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C90" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E90" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+      <c r="P90" s="2"/>
+      <c r="Q90" s="2"/>
+      <c r="R90" s="2"/>
+      <c r="S90" s="2"/>
+      <c r="T90" s="2"/>
+      <c r="U90" s="2"/>
+      <c r="V90" s="2"/>
+      <c r="W90" s="2"/>
+      <c r="X90" s="2"/>
+      <c r="Y90" s="2"/>
+      <c r="Z90" s="2"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C91" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E91" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+      <c r="P91" s="2"/>
+      <c r="Q91" s="2"/>
+      <c r="R91" s="2"/>
+      <c r="S91" s="2"/>
+      <c r="T91" s="2"/>
+      <c r="U91" s="2"/>
+      <c r="V91" s="2"/>
+      <c r="W91" s="2"/>
+      <c r="X91" s="2"/>
+      <c r="Y91" s="2"/>
+      <c r="Z91" s="2"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C92" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E92" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" s="2"/>
+      <c r="Q92" s="2"/>
+      <c r="R92" s="2"/>
+      <c r="S92" s="2"/>
+      <c r="T92" s="2"/>
+      <c r="U92" s="2"/>
+      <c r="V92" s="2"/>
+      <c r="W92" s="2"/>
+      <c r="X92" s="2"/>
+      <c r="Y92" s="2"/>
+      <c r="Z92" s="2"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C93" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E93" s="2">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="2"/>
+      <c r="R93" s="2"/>
+      <c r="S93" s="2"/>
+      <c r="T93" s="2"/>
+      <c r="U93" s="2"/>
+      <c r="V93" s="2"/>
+      <c r="W93" s="2"/>
+      <c r="X93" s="2"/>
+      <c r="Y93" s="2"/>
+      <c r="Z93" s="2"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C94" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D94" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+      <c r="P94" s="2"/>
+      <c r="Q94" s="2"/>
+      <c r="R94" s="2"/>
+      <c r="S94" s="2"/>
+      <c r="T94" s="2"/>
+      <c r="U94" s="2"/>
+      <c r="V94" s="2"/>
+      <c r="W94" s="2"/>
+      <c r="X94" s="2"/>
+      <c r="Y94" s="2"/>
+      <c r="Z94" s="2"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C95" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D95" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+      <c r="P95" s="2"/>
+      <c r="Q95" s="2"/>
+      <c r="R95" s="2"/>
+      <c r="S95" s="2"/>
+      <c r="T95" s="2"/>
+      <c r="U95" s="2"/>
+      <c r="V95" s="2"/>
+      <c r="W95" s="2"/>
+      <c r="X95" s="2"/>
+      <c r="Y95" s="2"/>
+      <c r="Z95" s="2"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C96" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+      <c r="P96" s="2"/>
+      <c r="Q96" s="2"/>
+      <c r="R96" s="2"/>
+      <c r="S96" s="2"/>
+      <c r="T96" s="2"/>
+      <c r="U96" s="2"/>
+      <c r="V96" s="2"/>
+      <c r="W96" s="2"/>
+      <c r="X96" s="2"/>
+      <c r="Y96" s="2"/>
+      <c r="Z96" s="2"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D97" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+      <c r="P97" s="2"/>
+      <c r="Q97" s="2"/>
+      <c r="R97" s="2"/>
+      <c r="S97" s="2"/>
+      <c r="T97" s="2"/>
+      <c r="U97" s="2"/>
+      <c r="V97" s="2"/>
+      <c r="W97" s="2"/>
+      <c r="X97" s="2"/>
+      <c r="Y97" s="2"/>
+      <c r="Z97" s="2"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C98" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D98" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2"/>
+      <c r="P98" s="2"/>
+      <c r="Q98" s="2"/>
+      <c r="R98" s="2"/>
+      <c r="S98" s="2"/>
+      <c r="T98" s="2"/>
+      <c r="U98" s="2"/>
+      <c r="V98" s="2"/>
+      <c r="W98" s="2"/>
+      <c r="X98" s="2"/>
+      <c r="Y98" s="2"/>
+      <c r="Z98" s="2"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
+      <c r="P99" s="2"/>
+      <c r="Q99" s="2"/>
+      <c r="R99" s="2"/>
+      <c r="S99" s="2"/>
+      <c r="T99" s="2"/>
+      <c r="U99" s="2"/>
+      <c r="V99" s="2"/>
+      <c r="W99" s="2"/>
+      <c r="X99" s="2"/>
+      <c r="Y99" s="2"/>
+      <c r="Z99" s="2"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
+      <c r="P100" s="2"/>
+      <c r="Q100" s="2"/>
+      <c r="R100" s="2"/>
+      <c r="S100" s="2"/>
+      <c r="T100" s="2"/>
+      <c r="U100" s="2"/>
+      <c r="V100" s="2"/>
+      <c r="W100" s="2"/>
+      <c r="X100" s="2"/>
+      <c r="Y100" s="2"/>
+      <c r="Z100" s="2"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
+      <c r="P101" s="2"/>
+      <c r="Q101" s="2"/>
+      <c r="R101" s="2"/>
+      <c r="S101" s="2"/>
+      <c r="T101" s="2"/>
+      <c r="U101" s="2"/>
+      <c r="V101" s="2"/>
+      <c r="W101" s="2"/>
+      <c r="X101" s="2"/>
+      <c r="Y101" s="2"/>
+      <c r="Z101" s="2"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" s="2"/>
+      <c r="Q102" s="2"/>
+      <c r="R102" s="2"/>
+      <c r="S102" s="2"/>
+      <c r="T102" s="2"/>
+      <c r="U102" s="2"/>
+      <c r="V102" s="2"/>
+      <c r="W102" s="2"/>
+      <c r="X102" s="2"/>
+      <c r="Y102" s="2"/>
+      <c r="Z102" s="2"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+      <c r="P103" s="2"/>
+      <c r="Q103" s="2"/>
+      <c r="R103" s="2"/>
+      <c r="S103" s="2"/>
+      <c r="T103" s="2"/>
+      <c r="U103" s="2"/>
+      <c r="V103" s="2"/>
+      <c r="W103" s="2"/>
+      <c r="X103" s="2"/>
+      <c r="Y103" s="2"/>
+      <c r="Z103" s="2"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2"/>
+      <c r="P104" s="2"/>
+      <c r="Q104" s="2"/>
+      <c r="R104" s="2"/>
+      <c r="S104" s="2"/>
+      <c r="T104" s="2"/>
+      <c r="U104" s="2"/>
+      <c r="V104" s="2"/>
+      <c r="W104" s="2"/>
+      <c r="X104" s="2"/>
+      <c r="Y104" s="2"/>
+      <c r="Z104" s="2"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
+      <c r="P105" s="2"/>
+      <c r="Q105" s="2"/>
+      <c r="R105" s="2"/>
+      <c r="S105" s="2"/>
+      <c r="T105" s="2"/>
+      <c r="U105" s="2"/>
+      <c r="V105" s="2"/>
+      <c r="W105" s="2"/>
+      <c r="X105" s="2"/>
+      <c r="Y105" s="2"/>
+      <c r="Z105" s="2"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C106" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2"/>
+      <c r="P106" s="2"/>
+      <c r="Q106" s="2"/>
+      <c r="R106" s="2"/>
+      <c r="S106" s="2"/>
+      <c r="T106" s="2"/>
+      <c r="U106" s="2"/>
+      <c r="V106" s="2"/>
+      <c r="W106" s="2"/>
+      <c r="X106" s="2"/>
+      <c r="Y106" s="2"/>
+      <c r="Z106" s="2"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C107" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
+      <c r="P107" s="2"/>
+      <c r="Q107" s="2"/>
+      <c r="R107" s="2"/>
+      <c r="S107" s="2"/>
+      <c r="T107" s="2"/>
+      <c r="U107" s="2"/>
+      <c r="V107" s="2"/>
+      <c r="W107" s="2"/>
+      <c r="X107" s="2"/>
+      <c r="Y107" s="2"/>
+      <c r="Z107" s="2"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
+      <c r="P108" s="2"/>
+      <c r="Q108" s="2"/>
+      <c r="R108" s="2"/>
+      <c r="S108" s="2"/>
+      <c r="T108" s="2"/>
+      <c r="U108" s="2"/>
+      <c r="V108" s="2"/>
+      <c r="W108" s="2"/>
+      <c r="X108" s="2"/>
+      <c r="Y108" s="2"/>
+      <c r="Z108" s="2"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
+      <c r="P109" s="2"/>
+      <c r="Q109" s="2"/>
+      <c r="R109" s="2"/>
+      <c r="S109" s="2"/>
+      <c r="T109" s="2"/>
+      <c r="U109" s="2"/>
+      <c r="V109" s="2"/>
+      <c r="W109" s="2"/>
+      <c r="X109" s="2"/>
+      <c r="Y109" s="2"/>
+      <c r="Z109" s="2"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2"/>
+      <c r="O110" s="2"/>
+      <c r="P110" s="2"/>
+      <c r="Q110" s="2"/>
+      <c r="R110" s="2"/>
+      <c r="S110" s="2"/>
+      <c r="T110" s="2"/>
+      <c r="U110" s="2"/>
+      <c r="V110" s="2"/>
+      <c r="W110" s="2"/>
+      <c r="X110" s="2"/>
+      <c r="Y110" s="2"/>
+      <c r="Z110" s="2"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C111" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
+      <c r="P111" s="2"/>
+      <c r="Q111" s="2"/>
+      <c r="R111" s="2"/>
+      <c r="S111" s="2"/>
+      <c r="T111" s="2"/>
+      <c r="U111" s="2"/>
+      <c r="V111" s="2"/>
+      <c r="W111" s="2"/>
+      <c r="X111" s="2"/>
+      <c r="Y111" s="2"/>
+      <c r="Z111" s="2"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C112" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
+      <c r="O112" s="2"/>
+      <c r="P112" s="2"/>
+      <c r="Q112" s="2"/>
+      <c r="R112" s="2"/>
+      <c r="S112" s="2"/>
+      <c r="T112" s="2"/>
+      <c r="U112" s="2"/>
+      <c r="V112" s="2"/>
+      <c r="W112" s="2"/>
+      <c r="X112" s="2"/>
+      <c r="Y112" s="2"/>
+      <c r="Z112" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
